--- a/results/result.xlsx
+++ b/results/result.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="64">
   <si>
     <t xml:space="preserve">lto</t>
   </si>
@@ -207,6 +208,12 @@
   </si>
   <si>
     <t xml:space="preserve">444.namd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">./baseline.:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">./scfi.:</t>
   </si>
 </sst>
 </file>
@@ -338,8 +345,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="17.4132653061224"/>
+    <col collapsed="false" hidden="false" max="8" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="16.8724489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -639,21 +648,21 @@
   </sheetPr>
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.3571428571429"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.3622448979592"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="12" min="9" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="12" min="9" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -738,7 +747,7 @@
         <v>23</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>2</v>
@@ -1109,6 +1118,1109 @@
       </c>
       <c r="L16" s="0" t="n">
         <v>236389</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:N27"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="4" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="13" min="3" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="4" t="n">
+        <v>426.140889</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>440.669413</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>443.02902</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>503.921284</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>470.449455</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>444.053413</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>512.217248</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>477.651541</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>428.868187</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>487.456287</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>437.017189</v>
+      </c>
+      <c r="M2" s="0" t="n">
+        <f aca="false">AVERAGE(C2:L2)</f>
+        <v>464.5333037</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="4" t="n">
+        <v>431.97578</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>426.015713</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>426.254246</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>436.691431</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>418.562816</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>479.774351</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>427.34099</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>407.804245</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>399.667274</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>456.007203</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>405.005128</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <f aca="false">AVERAGE(C3:L3)</f>
+        <v>428.3123397</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="4" t="n">
+        <v>339.981264</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>316.01316</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>297.240108</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>311.591554</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>303.881165</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>313.150064</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>297.088304</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>287.489696</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>298.225944</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>299.169035</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <v>338.880981</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <f aca="false">AVERAGE(C4:L4)</f>
+        <v>306.2730011</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="4" t="n">
+        <v>218.007827</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>234.178934</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>251.640526</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>246.037517</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>246.831783</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>254.486155</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>289.798164</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>253.35907</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>258.87035</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>219.174335</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>279.814104</v>
+      </c>
+      <c r="M5" s="0" t="n">
+        <f aca="false">AVERAGE(C5:L5)</f>
+        <v>253.4190938</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>319.2761</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>294.025545</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>355.392237</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>353.451121</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>293.621567</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>324.089531</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>299.445289</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>300.278199</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>297.439564</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>301.990071</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>293.09341</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <f aca="false">AVERAGE(C6:L6)</f>
+        <v>311.2826534</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="4" t="n">
+        <v>327.955631</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>317.584569</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>313.212637</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>339.193522</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>337.716535</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>316.11531</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>322.8004</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>318.622966</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>353.401087</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>351.837746</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>312.863752</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <f aca="false">AVERAGE(C7:L7)</f>
+        <v>328.3348524</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="4" t="n">
+        <v>451.953723</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>519.966986</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>437.050333</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>414.868827</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>444.486604</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>464.831064</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>625.432075</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>421.941893</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>439.807707</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>488.705809</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <v>465.126926</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <f aca="false">AVERAGE(C8:L8)</f>
+        <v>472.2218224</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="4" t="n">
+        <v>461.860597</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>508.784543</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>455.053416</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>514.982172</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>489.817969</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>470.204728</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>542.762107</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>471.280998</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>446.118833</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>445.725896</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <v>457.479795</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <f aca="false">AVERAGE(C9:L9)</f>
+        <v>480.2210457</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="4" t="n">
+        <v>354.837712</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>364.505327</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>340.185702</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>350.426302</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>359.932494</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>372.68463</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>420.72758</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>356.72048</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>344.880605</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>356.65952</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <v>340.963502</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <f aca="false">AVERAGE(C10:L10)</f>
+        <v>360.7686142</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="4" t="n">
+        <v>385.199008</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>361.89298</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>371.427558</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>390.416091</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>438.423359</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>380.144895</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>364.37707</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>363.564204</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>373.94293</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>417.924554</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <v>363.55125</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <f aca="false">AVERAGE(C11:L11)</f>
+        <v>382.5664891</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="4" t="n">
+        <v>179.78234</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>186.660361</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>201.043802</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>180.976203</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>189.087899</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>183.743176</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>195.34382</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>207.922275</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>183.503824</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>226.450285</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <v>228.535805</v>
+      </c>
+      <c r="M12" s="0" t="n">
+        <f aca="false">AVERAGE(C12:L12)</f>
+        <v>198.326745</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="4" t="n">
+        <v>335.815794</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>319.847398</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>323.978444</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>318.598039</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>317.897154</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>318.578172</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>319.826682</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>318.433486</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>317.777378</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>317.569824</v>
+      </c>
+      <c r="L13" s="0" t="n">
+        <v>317.484242</v>
+      </c>
+      <c r="M13" s="0" t="n">
+        <f aca="false">AVERAGE(C13:L13)</f>
+        <v>318.9990819</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="4" t="n">
+        <v>445.817547</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>469.230955</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>434.278514</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>454.260833</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>465.52458</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>443.32656</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>461.920448</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>516.894651</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>433.529606</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>433.230908</v>
+      </c>
+      <c r="L15" s="0" t="n">
+        <v>515.734251</v>
+      </c>
+      <c r="M15" s="0" t="n">
+        <f aca="false">AVERAGE(C15:L15)</f>
+        <v>462.7931306</v>
+      </c>
+      <c r="N15" s="1" t="n">
+        <f aca="false">M15/M2</f>
+        <v>0.996253932525097</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="4" t="n">
+        <v>453.757756</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>413.19933</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>446.963033</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>402.588042</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>451.175807</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>467.980486</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>403.623031</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>461.162088</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>409.218139</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <v>428.272088</v>
+      </c>
+      <c r="L16" s="0" t="n">
+        <v>427.793167</v>
+      </c>
+      <c r="M16" s="0" t="n">
+        <f aca="false">AVERAGE(C16:L16)</f>
+        <v>431.1975211</v>
+      </c>
+      <c r="N16" s="1" t="n">
+        <f aca="false">M16/M3</f>
+        <v>1.00673616221756</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="4" t="n">
+        <v>285.555329</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>303.101865</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>285.465255</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>277.509193</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>297.919046</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>321.132487</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>293.25123</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>326.307709</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>302.059837</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <v>310.120012</v>
+      </c>
+      <c r="L17" s="0" t="n">
+        <v>311.239949</v>
+      </c>
+      <c r="M17" s="0" t="n">
+        <f aca="false">AVERAGE(C17:L17)</f>
+        <v>302.8106583</v>
+      </c>
+      <c r="N17" s="1" t="n">
+        <f aca="false">M17/M4</f>
+        <v>0.988695239908301</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="4" t="n">
+        <v>233.008332</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>241.780541</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>263.743723</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>253.893069</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>231.855322</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>227.956221</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>245.028933</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>248.483259</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <v>284.723682</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <v>254.886422</v>
+      </c>
+      <c r="L18" s="0" t="n">
+        <v>247.508674</v>
+      </c>
+      <c r="M18" s="0" t="n">
+        <f aca="false">AVERAGE(C18:L18)</f>
+        <v>249.9859846</v>
+      </c>
+      <c r="N18" s="1" t="n">
+        <f aca="false">M18/M5</f>
+        <v>0.986452839253267</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="4" t="n">
+        <v>332.631266</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>295.355114</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>300.900706</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>346.261116</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>339.942482</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>295.826445</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>319.457098</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>311.884279</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <v>306.551891</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <v>319.236428</v>
+      </c>
+      <c r="L19" s="0" t="n">
+        <v>298.488483</v>
+      </c>
+      <c r="M19" s="0" t="n">
+        <f aca="false">AVERAGE(C19:L19)</f>
+        <v>313.3904042</v>
+      </c>
+      <c r="N19" s="1" t="n">
+        <f aca="false">M19/M6</f>
+        <v>1.00677117975248</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="4" t="n">
+        <v>393.485039</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>311.141821</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>396.924136</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>327.12104</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>320.158386</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>312.599152</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>356.1883</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>359.917804</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <v>365.860176</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <v>320.856179</v>
+      </c>
+      <c r="L20" s="0" t="n">
+        <v>311.911477</v>
+      </c>
+      <c r="M20" s="0" t="n">
+        <f aca="false">AVERAGE(C20:L20)</f>
+        <v>338.2678471</v>
+      </c>
+      <c r="N20" s="1" t="n">
+        <f aca="false">M20/M7</f>
+        <v>1.03025263576923</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="4" t="n">
+        <v>454.269451</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>495.277423</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>466.610216</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>534.209138</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>424.558024</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>539.412044</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>441.645792</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>425.427023</v>
+      </c>
+      <c r="J21" s="0" t="n">
+        <v>422.171073</v>
+      </c>
+      <c r="K21" s="0" t="n">
+        <v>534.4023</v>
+      </c>
+      <c r="L21" s="0" t="n">
+        <v>534.944873</v>
+      </c>
+      <c r="M21" s="0" t="n">
+        <f aca="false">AVERAGE(C21:L21)</f>
+        <v>481.8657906</v>
+      </c>
+      <c r="N21" s="1" t="n">
+        <f aca="false">M21/M8</f>
+        <v>1.02042253818552</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="4" t="n">
+        <v>480.910419</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>459.275085</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>539.350606</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>481.241442</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>469.266978</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>499.426691</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>469.166994</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>474.049664</v>
+      </c>
+      <c r="J22" s="0" t="n">
+        <v>487.127392</v>
+      </c>
+      <c r="K22" s="0" t="n">
+        <v>500.605196</v>
+      </c>
+      <c r="L22" s="0" t="n">
+        <v>523.900586</v>
+      </c>
+      <c r="M22" s="0" t="n">
+        <f aca="false">AVERAGE(C22:L22)</f>
+        <v>490.3410634</v>
+      </c>
+      <c r="N22" s="1" t="n">
+        <f aca="false">M22/M9</f>
+        <v>1.02107366553511</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="4" t="n">
+        <v>355.322246</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>363.419225</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>367.156339</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>337.984163</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>337.681577</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>338.457704</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <v>362.230968</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>370.986487</v>
+      </c>
+      <c r="J23" s="0" t="n">
+        <v>338.780815</v>
+      </c>
+      <c r="K23" s="0" t="n">
+        <v>427.362094</v>
+      </c>
+      <c r="L23" s="0" t="n">
+        <v>390.276363</v>
+      </c>
+      <c r="M23" s="0" t="n">
+        <f aca="false">AVERAGE(C23:L23)</f>
+        <v>363.4335735</v>
+      </c>
+      <c r="N23" s="1" t="n">
+        <f aca="false">M23/M10</f>
+        <v>1.00738689341341</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="4" t="n">
+        <v>360.83511</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>483.936195</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>441.088676</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>441.79291</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>405.07796</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>368.994032</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <v>429.125456</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <v>364.25387</v>
+      </c>
+      <c r="J24" s="0" t="n">
+        <v>424.157755</v>
+      </c>
+      <c r="K24" s="0" t="n">
+        <v>364.414551</v>
+      </c>
+      <c r="L24" s="0" t="n">
+        <v>390.995914</v>
+      </c>
+      <c r="M24" s="0" t="n">
+        <f aca="false">AVERAGE(C24:L24)</f>
+        <v>411.3837319</v>
+      </c>
+      <c r="N24" s="1" t="n">
+        <f aca="false">M24/M11</f>
+        <v>1.07532610309856</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="4" t="n">
+        <v>269.156459</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>238.046911</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>185.316278</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>193.3428</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>216.597522</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>237.90001</v>
+      </c>
+      <c r="H25" s="0" t="n">
+        <v>234.224589</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <v>188.958568</v>
+      </c>
+      <c r="J25" s="0" t="n">
+        <v>193.309829</v>
+      </c>
+      <c r="K25" s="0" t="n">
+        <v>205.877576</v>
+      </c>
+      <c r="L25" s="0" t="n">
+        <v>199.46448</v>
+      </c>
+      <c r="M25" s="0" t="n">
+        <f aca="false">AVERAGE(C25:L25)</f>
+        <v>209.3038563</v>
+      </c>
+      <c r="N25" s="1" t="n">
+        <f aca="false">M25/M12</f>
+        <v>1.05534861826124</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="4" t="n">
+        <v>334.201438</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>317.953516</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>324.872848</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>344.645389</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>321.293932</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>319.494532</v>
+      </c>
+      <c r="H26" s="0" t="n">
+        <v>317.867783</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <v>328.14587</v>
+      </c>
+      <c r="J26" s="0" t="n">
+        <v>317.453336</v>
+      </c>
+      <c r="K26" s="0" t="n">
+        <v>317.343453</v>
+      </c>
+      <c r="L26" s="0" t="n">
+        <v>318.303969</v>
+      </c>
+      <c r="M26" s="0" t="n">
+        <f aca="false">AVERAGE(C26:L26)</f>
+        <v>322.7374628</v>
+      </c>
+      <c r="N26" s="1" t="n">
+        <f aca="false">M26/M13</f>
+        <v>1.01171909611067</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N27" s="1" t="n">
+        <f aca="false">AVERAGE(N15:N26)</f>
+        <v>1.01720324200254</v>
       </c>
     </row>
   </sheetData>

--- a/results/result.xlsx
+++ b/results/result.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="69">
   <si>
     <t xml:space="preserve">lto</t>
   </si>
@@ -96,6 +96,9 @@
     <t xml:space="preserve">max multi tag</t>
   </si>
   <si>
+    <t xml:space="preserve">Max length</t>
+  </si>
+  <si>
     <t xml:space="preserve">original size</t>
   </si>
   <si>
@@ -208,6 +211,18 @@
   </si>
   <si>
     <t xml:space="preserve">444.namd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">httpd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{0: 40, 1: 13}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{0: 216, 1: 155}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{0: 220, 1: 13}</t>
   </si>
   <si>
     <t xml:space="preserve">./baseline.:</t>
@@ -345,10 +360,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="8" min="1" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="16.8724489795918"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="8" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="16.6020408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -646,23 +661,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I19" activeCellId="0" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="12" min="9" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.984693877551"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.5"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10.4591836734694"/>
+    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -690,19 +707,22 @@
       <c r="I1" s="0" t="s">
         <v>23</v>
       </c>
+      <c r="J1" s="0" t="s">
+        <v>24</v>
+      </c>
       <c r="K1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>413</v>
@@ -717,16 +737,19 @@
         <v>19</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I2" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>6</v>
       </c>
       <c r="K2" s="0" t="n">
         <v>1064757</v>
@@ -741,7 +764,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>23</v>
@@ -756,15 +779,18 @@
         <v>2</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="0" t="n">
         <v>1</v>
       </c>
       <c r="K3" s="0" t="n">
@@ -780,7 +806,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>367</v>
@@ -795,16 +821,19 @@
         <v>43</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I4" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>7</v>
       </c>
       <c r="K4" s="0" t="n">
         <v>2959541</v>
@@ -819,7 +848,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>40</v>
@@ -834,16 +863,19 @@
         <v>8</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I5" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>5</v>
       </c>
       <c r="K5" s="0" t="n">
         <v>696117</v>
@@ -858,7 +890,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>12</v>
@@ -873,15 +905,18 @@
         <v>2</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="0" t="n">
         <v>1</v>
       </c>
       <c r="K6" s="0" t="n">
@@ -897,7 +932,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>1</v>
@@ -912,15 +947,18 @@
         <v>1</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="I7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="0" t="n">
         <v>1</v>
       </c>
       <c r="K7" s="0" t="n">
@@ -936,7 +974,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>367</v>
@@ -951,16 +989,19 @@
         <v>8</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>4</v>
       </c>
       <c r="K8" s="0" t="n">
         <v>523157</v>
@@ -975,7 +1016,7 @@
     </row>
     <row r="9" customFormat="false" ht="35.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B9" s="3" t="n">
         <v>2020</v>
@@ -990,18 +1031,20 @@
         <v>124</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I9" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="J9" s="4"/>
+      <c r="J9" s="4" t="n">
+        <v>8</v>
+      </c>
       <c r="K9" s="4" t="n">
         <v>645541</v>
       </c>
@@ -1015,7 +1058,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B10" s="4" t="n">
         <v>1</v>
@@ -1030,18 +1073,20 @@
         <v>1</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J10" s="4"/>
+      <c r="J10" s="4" t="n">
+        <v>1</v>
+      </c>
       <c r="K10" s="4" t="n">
         <v>30437</v>
       </c>
@@ -1055,7 +1100,7 @@
     </row>
     <row r="11" customFormat="false" ht="58.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B11" s="3" t="n">
         <v>20038</v>
@@ -1070,18 +1115,20 @@
         <v>807</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I11" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="J11" s="4"/>
+      <c r="J11" s="4" t="n">
+        <v>7</v>
+      </c>
       <c r="K11" s="4" t="n">
         <v>2387189</v>
       </c>
@@ -1100,7 +1147,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K15" s="0" t="n">
         <v>82245</v>
@@ -1111,13 +1158,45 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K16" s="0" t="n">
         <v>236293</v>
       </c>
       <c r="L16" s="0" t="n">
         <v>236389</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>398</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>233</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>371</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1138,27 +1217,29 @@
   </sheetPr>
   <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="4" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="13" min="3" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="4" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="13" min="3" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>62</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="B1" s="0"/>
+      <c r="N1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" s="4" t="n">
         <v>426.140889</v>
@@ -1197,10 +1278,11 @@
         <f aca="false">AVERAGE(C2:L2)</f>
         <v>464.5333037</v>
       </c>
+      <c r="N2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B3" s="4" t="n">
         <v>431.97578</v>
@@ -1239,10 +1321,11 @@
         <f aca="false">AVERAGE(C3:L3)</f>
         <v>428.3123397</v>
       </c>
+      <c r="N3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B4" s="4" t="n">
         <v>339.981264</v>
@@ -1281,10 +1364,11 @@
         <f aca="false">AVERAGE(C4:L4)</f>
         <v>306.2730011</v>
       </c>
+      <c r="N4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B5" s="4" t="n">
         <v>218.007827</v>
@@ -1323,10 +1407,11 @@
         <f aca="false">AVERAGE(C5:L5)</f>
         <v>253.4190938</v>
       </c>
+      <c r="N5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B6" s="4" t="n">
         <v>319.2761</v>
@@ -1365,10 +1450,11 @@
         <f aca="false">AVERAGE(C6:L6)</f>
         <v>311.2826534</v>
       </c>
+      <c r="N6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B7" s="4" t="n">
         <v>327.955631</v>
@@ -1407,10 +1493,11 @@
         <f aca="false">AVERAGE(C7:L7)</f>
         <v>328.3348524</v>
       </c>
+      <c r="N7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B8" s="4" t="n">
         <v>451.953723</v>
@@ -1449,10 +1536,11 @@
         <f aca="false">AVERAGE(C8:L8)</f>
         <v>472.2218224</v>
       </c>
+      <c r="N8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B9" s="4" t="n">
         <v>461.860597</v>
@@ -1491,10 +1579,11 @@
         <f aca="false">AVERAGE(C9:L9)</f>
         <v>480.2210457</v>
       </c>
+      <c r="N9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10" s="4" t="n">
         <v>354.837712</v>
@@ -1533,10 +1622,11 @@
         <f aca="false">AVERAGE(C10:L10)</f>
         <v>360.7686142</v>
       </c>
+      <c r="N10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B11" s="4" t="n">
         <v>385.199008</v>
@@ -1575,10 +1665,11 @@
         <f aca="false">AVERAGE(C11:L11)</f>
         <v>382.5664891</v>
       </c>
+      <c r="N11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B12" s="4" t="n">
         <v>179.78234</v>
@@ -1617,10 +1708,11 @@
         <f aca="false">AVERAGE(C12:L12)</f>
         <v>198.326745</v>
       </c>
+      <c r="N12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B13" s="4" t="n">
         <v>335.815794</v>
@@ -1659,15 +1751,18 @@
         <f aca="false">AVERAGE(C13:L13)</f>
         <v>318.9990819</v>
       </c>
+      <c r="N13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>63</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="B14" s="0"/>
+      <c r="N14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B15" s="4" t="n">
         <v>445.817547</v>
@@ -1713,7 +1808,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B16" s="4" t="n">
         <v>453.757756</v>
@@ -1759,7 +1854,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" s="4" t="n">
         <v>285.555329</v>
@@ -1805,7 +1900,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B18" s="4" t="n">
         <v>233.008332</v>
@@ -1851,7 +1946,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B19" s="4" t="n">
         <v>332.631266</v>
@@ -1897,7 +1992,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B20" s="4" t="n">
         <v>393.485039</v>
@@ -1943,7 +2038,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B21" s="4" t="n">
         <v>454.269451</v>
@@ -1989,7 +2084,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B22" s="4" t="n">
         <v>480.910419</v>
@@ -2035,7 +2130,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B23" s="4" t="n">
         <v>355.322246</v>
@@ -2081,7 +2176,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B24" s="4" t="n">
         <v>360.83511</v>
@@ -2127,7 +2222,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B25" s="4" t="n">
         <v>269.156459</v>
@@ -2173,7 +2268,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B26" s="4" t="n">
         <v>334.201438</v>

--- a/results/result.xlsx
+++ b/results/result.xlsx
@@ -183,13 +183,13 @@
     <t xml:space="preserve">471.omnetpp</t>
   </si>
   <si>
-    <t xml:space="preserve">{0: 107, 2: 14, 1: 2, 3: 1}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{0: 649, 1: 143, 2: 66, 3: 7}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{0: 1478, 2: 197, 1: 118, 3: 1}</t>
+    <t xml:space="preserve">{0: 110, 1: 12, 2: 2}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{0: 656, 1: 156, 2: 59}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0: 1574, 1: 299, 2: 19}</t>
   </si>
   <si>
     <t xml:space="preserve">473.astar</t>
@@ -244,7 +244,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -360,10 +359,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="8" min="1" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="16.6020408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="16.3316326530612"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -664,22 +661,23 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I19" activeCellId="0" sqref="I19"/>
+      <selection pane="topLeft" activeCell="I11" activeCellId="0" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.9234693877551"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.1479591836735"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.984693877551"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.5"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10.4591836734694"/>
-    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1014,7 +1012,7 @@
         <v>1.00905273178033</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="35.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
         <v>52</v>
       </c>
@@ -1022,10 +1020,10 @@
         <v>2020</v>
       </c>
       <c r="C9" s="3" t="n">
-        <v>1794</v>
+        <v>1892</v>
       </c>
       <c r="D9" s="3" t="n">
-        <v>763</v>
+        <v>769</v>
       </c>
       <c r="E9" s="3" t="n">
         <v>124</v>
@@ -1223,11 +1221,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="4" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="13" min="3" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="4" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="11.0714285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/results/result.xlsx
+++ b/results/result.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="985" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="75">
   <si>
     <t xml:space="preserve">lto</t>
   </si>
@@ -192,6 +192,15 @@
     <t xml:space="preserve">0: 1574, 1: 299, 2: 19}</t>
   </si>
   <si>
+    <t xml:space="preserve">{0: 119, 1: 11, 2: 5, 3: 1}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{0: 620, 1: 183, 2: 130, 3: 5}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{0: 1604, 1: 296, 2: 52, 3: 8}</t>
+  </si>
+  <si>
     <t xml:space="preserve">473.astar</t>
   </si>
   <si>
@@ -205,6 +214,15 @@
   </si>
   <si>
     <t xml:space="preserve">{0: 12820, 1: 3044, 4: 1414, 3: 948, 5: 861, 2: 297, 6: 196, 7: 8}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{4: 256, 5: 256, 1: 145, 0: 124, 6: 55, 2: 43, 3: 5}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{1: 1562, 0: 966, 5: 650, 4: 623, 2: 254, 6: 165, 3: 9}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{0: 14695, 1: 3846, 5: 814, 2: 765, 6: 392, 4: 289, 3: 21}</t>
   </si>
   <si>
     <t xml:space="preserve">433.milc</t>
@@ -244,6 +262,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -261,7 +280,7 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -270,8 +289,26 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF66"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66FF99"/>
+        <bgColor rgb="FF00FF66"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF66"/>
+        <bgColor rgb="FF00FFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -309,17 +346,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -334,6 +367,46 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -343,6 +416,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF66"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF66"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF66FF99"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -353,14 +486,16 @@
   </sheetPr>
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F31" activeCellId="0" sqref="F31"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="16.3316326530612"/>
+    <col collapsed="false" hidden="false" max="8" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.5"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="15.7959183673469"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -555,22 +690,22 @@
         <v>12</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>137.298</v>
+        <v>134.01</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>158.218</v>
+        <v>136.291</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>24.1</v>
+        <v>2.6</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>72.83</v>
+        <v>74.62</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>63.2</v>
+        <v>73.37</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -658,26 +793,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I11" activeCellId="0" sqref="I11"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.9234693877551"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.1479591836735"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.984693877551"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.5"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -718,15 +853,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="3" customFormat="true" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>413</v>
+        <v>595</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>692</v>
@@ -743,457 +878,591 @@
       <c r="H2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="I2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="J2" s="0" t="n">
+      <c r="J2" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="K2" s="0" t="n">
+      <c r="K2" s="3" t="n">
         <v>1064757</v>
       </c>
-      <c r="L2" s="0" t="n">
+      <c r="L2" s="3" t="n">
         <v>1074917</v>
       </c>
-      <c r="M2" s="1" t="n">
+      <c r="M2" s="4" t="n">
         <f aca="false">L2/K2</f>
         <v>1.00954208331103</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+    <row r="3" s="6" customFormat="true" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="C3" s="6" t="n">
         <v>23</v>
       </c>
-      <c r="C3" s="0" t="n">
-        <v>23</v>
-      </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="I3" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="J3" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="K3" s="0" t="n">
+      <c r="K3" s="6" t="n">
         <v>60693</v>
       </c>
-      <c r="L3" s="0" t="n">
+      <c r="L3" s="6" t="n">
         <v>60997</v>
       </c>
-      <c r="M3" s="1" t="n">
+      <c r="M3" s="7" t="n">
         <f aca="false">L3/K3</f>
         <v>1.00500881485509</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+    <row r="4" s="9" customFormat="true" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B4" s="8" t="n">
         <v>367</v>
       </c>
-      <c r="C4" s="2" t="n">
+      <c r="C4" s="8" t="n">
         <v>291</v>
       </c>
-      <c r="D4" s="2" t="n">
+      <c r="D4" s="8" t="n">
         <v>907</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4" s="9" t="n">
         <v>43</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="I4" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="J4" s="0" t="n">
+      <c r="J4" s="9" t="n">
         <v>7</v>
       </c>
-      <c r="K4" s="0" t="n">
+      <c r="K4" s="9" t="n">
         <v>2959541</v>
       </c>
-      <c r="L4" s="0" t="n">
+      <c r="L4" s="9" t="n">
         <v>2978037</v>
       </c>
-      <c r="M4" s="1" t="n">
+      <c r="M4" s="10" t="n">
         <f aca="false">L4/K4</f>
         <v>1.00624961776167</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11" t="n">
+        <v>1028</v>
+      </c>
+      <c r="C5" s="11" t="n">
+        <v>318</v>
+      </c>
+      <c r="D5" s="11" t="n">
+        <v>911</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="M5" s="0"/>
+    </row>
+    <row r="6" s="6" customFormat="true" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="2" t="n">
+      <c r="B6" s="5" t="n">
         <v>40</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C6" s="6" t="n">
         <v>39</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D6" s="6" t="n">
         <v>1822</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E6" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F6" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G6" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H6" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="I6" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="J5" s="0" t="n">
+      <c r="J6" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="K5" s="0" t="n">
+      <c r="K6" s="6" t="n">
         <v>696117</v>
       </c>
-      <c r="L5" s="0" t="n">
+      <c r="L6" s="6" t="n">
         <v>709253</v>
       </c>
-      <c r="M5" s="1" t="n">
-        <f aca="false">L5/K5</f>
+      <c r="M6" s="7" t="n">
+        <f aca="false">L6/K6</f>
         <v>1.01887039104059</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11" t="n">
+        <v>94</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>1822</v>
+      </c>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="M7" s="0"/>
+    </row>
+    <row r="8" s="6" customFormat="true" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B8" s="6" t="n">
         <v>12</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C8" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D8" s="6" t="n">
         <v>18</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E8" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F8" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G8" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H8" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="0" t="n">
+      <c r="I8" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="J6" s="0" t="n">
+      <c r="J8" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="K6" s="0" t="n">
+      <c r="K8" s="6" t="n">
         <v>153445</v>
       </c>
-      <c r="L6" s="0" t="n">
+      <c r="L8" s="6" t="n">
         <v>153669</v>
       </c>
-      <c r="M6" s="1" t="n">
-        <f aca="false">L6/K6</f>
+      <c r="M8" s="7" t="n">
+        <f aca="false">L8/K8</f>
         <v>1.00145980644531</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="11"/>
+      <c r="B9" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="M9" s="0"/>
+    </row>
+    <row r="10" s="6" customFormat="true" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B10" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C10" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D10" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E10" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F10" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G10" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H10" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="I7" s="0" t="n">
+      <c r="I10" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="J7" s="0" t="n">
+      <c r="J10" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="K7" s="0" t="n">
+      <c r="K10" s="6" t="n">
         <v>94917</v>
       </c>
-      <c r="L7" s="0" t="n">
+      <c r="L10" s="6" t="n">
         <v>94965</v>
       </c>
-      <c r="M7" s="1" t="n">
-        <f aca="false">L7/K7</f>
+      <c r="M10" s="7" t="n">
+        <f aca="false">L10/K10</f>
         <v>1.00050570498435</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="11"/>
+      <c r="B11" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="M11" s="0"/>
+    </row>
+    <row r="12" s="6" customFormat="true" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B12" s="6" t="n">
         <v>367</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C12" s="6" t="n">
         <v>366</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D12" s="6" t="n">
         <v>34</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E12" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F12" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G12" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H12" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="I8" s="0" t="n">
+      <c r="I12" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="J8" s="0" t="n">
+      <c r="J12" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="K8" s="0" t="n">
+      <c r="K12" s="6" t="n">
         <v>523157</v>
       </c>
-      <c r="L8" s="0" t="n">
+      <c r="L12" s="6" t="n">
         <v>527893</v>
       </c>
-      <c r="M8" s="1" t="n">
-        <f aca="false">L8/K8</f>
+      <c r="M12" s="7" t="n">
+        <f aca="false">L12/K12</f>
         <v>1.00905273178033</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="11"/>
+      <c r="B13" s="0" t="n">
+        <v>388</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>366</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="M13" s="0"/>
+    </row>
+    <row r="14" s="3" customFormat="true" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B14" s="2" t="n">
         <v>2020</v>
       </c>
-      <c r="C9" s="3" t="n">
+      <c r="C14" s="2" t="n">
         <v>1892</v>
       </c>
-      <c r="D9" s="3" t="n">
+      <c r="D14" s="2" t="n">
         <v>769</v>
       </c>
-      <c r="E9" s="3" t="n">
+      <c r="E14" s="2" t="n">
         <v>124</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F14" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G14" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H14" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="I9" s="4" t="n">
+      <c r="I14" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="J9" s="4" t="n">
+      <c r="J14" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="K9" s="4" t="n">
+      <c r="K14" s="3" t="n">
         <v>645541</v>
       </c>
-      <c r="L9" s="4" t="n">
+      <c r="L14" s="3" t="n">
         <v>700617</v>
       </c>
-      <c r="M9" s="5" t="n">
-        <f aca="false">L9/K9</f>
+      <c r="M14" s="4" t="n">
+        <f aca="false">L14/K14</f>
         <v>1.08531758633456</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
+    <row r="15" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11" t="n">
+        <v>2133</v>
+      </c>
+      <c r="C15" s="11" t="n">
+        <v>1960</v>
+      </c>
+      <c r="D15" s="11" t="n">
+        <v>833</v>
+      </c>
+      <c r="E15" s="11" t="n">
+        <v>136</v>
+      </c>
+      <c r="F15" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="4" t="n">
+      <c r="G15" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" s="13" customFormat="true" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="4" t="n">
+      <c r="C16" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="D10" s="4" t="n">
+      <c r="D16" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="E10" s="4" t="n">
+      <c r="E16" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F16" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G16" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H16" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="I10" s="4" t="n">
+      <c r="I16" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="J10" s="4" t="n">
+      <c r="J16" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="K10" s="4" t="n">
+      <c r="K16" s="13" t="n">
         <v>30437</v>
       </c>
-      <c r="L10" s="4" t="n">
+      <c r="L16" s="13" t="n">
         <v>30437</v>
       </c>
-      <c r="M10" s="5" t="n">
-        <f aca="false">L10/K10</f>
+      <c r="M16" s="14" t="n">
+        <f aca="false">L16/K16</f>
         <v>1</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="58.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11" s="3" t="n">
+    <row r="17" s="9" customFormat="true" ht="58.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="8" t="n">
         <v>20038</v>
       </c>
-      <c r="C11" s="3" t="n">
+      <c r="C17" s="8" t="n">
         <v>19588</v>
       </c>
-      <c r="D11" s="3" t="n">
+      <c r="D17" s="8" t="n">
         <v>3657</v>
       </c>
-      <c r="E11" s="3" t="n">
+      <c r="E17" s="8" t="n">
         <v>807</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="I11" s="4" t="n">
+      <c r="F17" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I17" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="J11" s="4" t="n">
+      <c r="J17" s="9" t="n">
         <v>7</v>
       </c>
-      <c r="K11" s="4" t="n">
+      <c r="K17" s="9" t="n">
         <v>2387189</v>
       </c>
-      <c r="L11" s="4" t="n">
+      <c r="L17" s="9" t="n">
         <v>2755516</v>
       </c>
-      <c r="M11" s="5" t="n">
-        <f aca="false">L11/K11</f>
+      <c r="M17" s="10" t="n">
+        <f aca="false">L17/K17</f>
         <v>1.1542931875105</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L12" s="0" t="n">
+    <row r="18" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11" t="n">
+        <v>21507</v>
+      </c>
+      <c r="C18" s="11" t="n">
+        <v>20822</v>
+      </c>
+      <c r="D18" s="11" t="n">
+        <v>3768</v>
+      </c>
+      <c r="E18" s="11" t="n">
+        <v>844</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L19" s="0" t="n">
         <v>2894489</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="K15" s="0" t="n">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="K22" s="0" t="n">
         <v>82245</v>
       </c>
-      <c r="L15" s="0" t="n">
+      <c r="L22" s="0" t="n">
         <v>82245</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="K16" s="0" t="n">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="K23" s="0" t="n">
         <v>236293</v>
       </c>
-      <c r="L16" s="0" t="n">
+      <c r="L23" s="0" t="n">
         <v>236389</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="B18" s="0" t="n">
+    <row r="25" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" s="0" t="n">
         <v>398</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C25" s="0" t="n">
         <v>233</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="D25" s="0" t="n">
         <v>371</v>
       </c>
-      <c r="E18" s="0" t="n">
+      <c r="E25" s="0" t="n">
         <v>53</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I18" s="0" t="n">
+      <c r="F25" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="I25" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="J18" s="0" t="n">
+      <c r="J25" s="0" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1221,13 +1490,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="2" style="4" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="9" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="13" min="3" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B1" s="0"/>
       <c r="N1" s="0"/>
@@ -1236,7 +1508,7 @@
       <c r="A2" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="4" t="n">
+      <c r="B2" s="9" t="n">
         <v>426.140889</v>
       </c>
       <c r="C2" s="0" t="n">
@@ -1279,7 +1551,7 @@
       <c r="A3" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="4" t="n">
+      <c r="B3" s="9" t="n">
         <v>431.97578</v>
       </c>
       <c r="C3" s="0" t="n">
@@ -1322,7 +1594,7 @@
       <c r="A4" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="4" t="n">
+      <c r="B4" s="9" t="n">
         <v>339.981264</v>
       </c>
       <c r="C4" s="0" t="n">
@@ -1365,7 +1637,7 @@
       <c r="A5" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="4" t="n">
+      <c r="B5" s="9" t="n">
         <v>218.007827</v>
       </c>
       <c r="C5" s="0" t="n">
@@ -1408,7 +1680,7 @@
       <c r="A6" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="4" t="n">
+      <c r="B6" s="9" t="n">
         <v>319.2761</v>
       </c>
       <c r="C6" s="0" t="n">
@@ -1451,7 +1723,7 @@
       <c r="A7" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="4" t="n">
+      <c r="B7" s="9" t="n">
         <v>327.955631</v>
       </c>
       <c r="C7" s="0" t="n">
@@ -1494,7 +1766,7 @@
       <c r="A8" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="4" t="n">
+      <c r="B8" s="9" t="n">
         <v>451.953723</v>
       </c>
       <c r="C8" s="0" t="n">
@@ -1537,7 +1809,7 @@
       <c r="A9" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="4" t="n">
+      <c r="B9" s="9" t="n">
         <v>461.860597</v>
       </c>
       <c r="C9" s="0" t="n">
@@ -1578,9 +1850,9 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="B10" s="4" t="n">
+        <v>67</v>
+      </c>
+      <c r="B10" s="9" t="n">
         <v>354.837712</v>
       </c>
       <c r="C10" s="0" t="n">
@@ -1621,9 +1893,9 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" s="4" t="n">
+        <v>59</v>
+      </c>
+      <c r="B11" s="9" t="n">
         <v>385.199008</v>
       </c>
       <c r="C11" s="0" t="n">
@@ -1664,9 +1936,9 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12" s="4" t="n">
+        <v>60</v>
+      </c>
+      <c r="B12" s="9" t="n">
         <v>179.78234</v>
       </c>
       <c r="C12" s="0" t="n">
@@ -1707,9 +1979,9 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" s="4" t="n">
+        <v>68</v>
+      </c>
+      <c r="B13" s="9" t="n">
         <v>335.815794</v>
       </c>
       <c r="C13" s="0" t="n">
@@ -1750,7 +2022,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B14" s="0"/>
       <c r="N14" s="0"/>
@@ -1759,7 +2031,7 @@
       <c r="A15" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="4" t="n">
+      <c r="B15" s="9" t="n">
         <v>445.817547</v>
       </c>
       <c r="C15" s="0" t="n">
@@ -1805,7 +2077,7 @@
       <c r="A16" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="4" t="n">
+      <c r="B16" s="9" t="n">
         <v>453.757756</v>
       </c>
       <c r="C16" s="0" t="n">
@@ -1851,7 +2123,7 @@
       <c r="A17" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="4" t="n">
+      <c r="B17" s="9" t="n">
         <v>285.555329</v>
       </c>
       <c r="C17" s="0" t="n">
@@ -1897,7 +2169,7 @@
       <c r="A18" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="4" t="n">
+      <c r="B18" s="9" t="n">
         <v>233.008332</v>
       </c>
       <c r="C18" s="0" t="n">
@@ -1943,7 +2215,7 @@
       <c r="A19" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="B19" s="4" t="n">
+      <c r="B19" s="9" t="n">
         <v>332.631266</v>
       </c>
       <c r="C19" s="0" t="n">
@@ -1989,7 +2261,7 @@
       <c r="A20" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="4" t="n">
+      <c r="B20" s="9" t="n">
         <v>393.485039</v>
       </c>
       <c r="C20" s="0" t="n">
@@ -2035,7 +2307,7 @@
       <c r="A21" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="4" t="n">
+      <c r="B21" s="9" t="n">
         <v>454.269451</v>
       </c>
       <c r="C21" s="0" t="n">
@@ -2081,7 +2353,7 @@
       <c r="A22" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="4" t="n">
+      <c r="B22" s="9" t="n">
         <v>480.910419</v>
       </c>
       <c r="C22" s="0" t="n">
@@ -2125,9 +2397,9 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="B23" s="4" t="n">
+        <v>67</v>
+      </c>
+      <c r="B23" s="9" t="n">
         <v>355.322246</v>
       </c>
       <c r="C23" s="0" t="n">
@@ -2171,9 +2443,9 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="B24" s="4" t="n">
+        <v>59</v>
+      </c>
+      <c r="B24" s="9" t="n">
         <v>360.83511</v>
       </c>
       <c r="C24" s="0" t="n">
@@ -2217,9 +2489,9 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="B25" s="4" t="n">
+        <v>60</v>
+      </c>
+      <c r="B25" s="9" t="n">
         <v>269.156459</v>
       </c>
       <c r="C25" s="0" t="n">
@@ -2263,9 +2535,9 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="B26" s="4" t="n">
+        <v>68</v>
+      </c>
+      <c r="B26" s="9" t="n">
         <v>334.201438</v>
       </c>
       <c r="C26" s="0" t="n">

--- a/results/result.xlsx
+++ b/results/result.xlsx
@@ -11,6 +11,7 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="86">
   <si>
     <t xml:space="preserve">lto</t>
   </si>
@@ -70,6 +71,39 @@
   </si>
   <si>
     <t xml:space="preserve">1000m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10K.b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50K.b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100K.b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">500K.b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1M.b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5M.b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10M.b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50M.b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100M.b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">500M.b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1000M.b</t>
   </si>
   <si>
     <t xml:space="preserve">total icall</t>
@@ -484,18 +518,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F30" activeCellId="0" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="8" min="1" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.5"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="15.7959183673469"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="8" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -713,10 +747,10 @@
         <v>13</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>325.357</v>
+        <v>270.573</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>50.2</v>
+        <v>3.5</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>351.626</v>
@@ -775,6 +809,284 @@
       </c>
       <c r="G12" s="0" t="n">
         <v>3.32</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>0.452</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H16" s="1" t="n">
+        <f aca="false">B16/E16</f>
+        <v>1.31637168141593</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>0.759</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>0.812</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H17" s="1" t="n">
+        <f aca="false">B17/E17</f>
+        <v>0.934729064039409</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>0.974</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>0.971</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H18" s="1" t="n">
+        <f aca="false">B18/E18</f>
+        <v>1.00308959835221</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>2.511</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>2.704</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H19" s="1" t="n">
+        <f aca="false">B19/E19</f>
+        <v>0.92862426035503</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>4.686</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>4.897</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H20" s="1" t="n">
+        <f aca="false">B20/E20</f>
+        <v>0.956912395344088</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>14.413</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>20.782</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1" t="n">
+        <f aca="false">B21/E21</f>
+        <v>0.693532864979309</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>25.94</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>24.109</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H22" s="1" t="n">
+        <f aca="false">B22/E22</f>
+        <v>1.07594674188063</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>134.654</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>131.816</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="H23" s="1" t="n">
+        <f aca="false">B23/E23</f>
+        <v>1.02153001153123</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>280.357</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>270.123</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H24" s="1" t="n">
+        <f aca="false">B24/E24</f>
+        <v>1.03788644432351</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>1363.444</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>1375.608</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>102.2</v>
+      </c>
+      <c r="H25" s="1" t="n">
+        <f aca="false">B25/E25</f>
+        <v>0.991157364598054</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>2722.796</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>2731.273</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>52.2</v>
+      </c>
+      <c r="H26" s="1" t="n">
+        <f aca="false">B26/E26</f>
+        <v>0.996896319042439</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H27" s="1" t="n">
+        <f aca="false">AVERAGE(H16:H26)</f>
+        <v>0.996061522351076</v>
       </c>
     </row>
   </sheetData>
@@ -801,61 +1113,61 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.5"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="0" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" s="3" customFormat="true" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>595</v>
@@ -870,13 +1182,13 @@
         <v>19</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="I2" s="3" t="n">
         <v>1</v>
@@ -897,7 +1209,7 @@
     </row>
     <row r="3" s="6" customFormat="true" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B3" s="6" t="n">
         <v>26</v>
@@ -912,13 +1224,13 @@
         <v>2</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="I3" s="6" t="n">
         <v>1</v>
@@ -939,7 +1251,7 @@
     </row>
     <row r="4" s="9" customFormat="true" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="B4" s="8" t="n">
         <v>367</v>
@@ -954,13 +1266,13 @@
         <v>43</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="I4" s="9" t="n">
         <v>1</v>
@@ -1000,7 +1312,7 @@
     </row>
     <row r="6" s="6" customFormat="true" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="B6" s="5" t="n">
         <v>40</v>
@@ -1015,13 +1327,13 @@
         <v>8</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="I6" s="6" t="n">
         <v>1</v>
@@ -1058,7 +1370,7 @@
     </row>
     <row r="8" s="6" customFormat="true" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="B8" s="6" t="n">
         <v>12</v>
@@ -1073,13 +1385,13 @@
         <v>2</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -1119,7 +1431,7 @@
     </row>
     <row r="10" s="6" customFormat="true" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="B10" s="6" t="n">
         <v>1</v>
@@ -1134,13 +1446,13 @@
         <v>1</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="I10" s="6" t="n">
         <v>1</v>
@@ -1177,7 +1489,7 @@
     </row>
     <row r="12" s="6" customFormat="true" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="B12" s="6" t="n">
         <v>367</v>
@@ -1192,13 +1504,13 @@
         <v>8</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="I12" s="6" t="n">
         <v>1</v>
@@ -1235,7 +1547,7 @@
     </row>
     <row r="14" s="3" customFormat="true" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="B14" s="2" t="n">
         <v>2020</v>
@@ -1250,13 +1562,13 @@
         <v>124</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="I14" s="3" t="n">
         <v>3</v>
@@ -1290,18 +1602,19 @@
         <v>136</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>58</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="M15" s="0"/>
     </row>
     <row r="16" s="13" customFormat="true" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="12" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="B16" s="13" t="n">
         <v>1</v>
@@ -1316,13 +1629,13 @@
         <v>1</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="I16" s="13" t="n">
         <v>1</v>
@@ -1343,7 +1656,7 @@
     </row>
     <row r="17" s="9" customFormat="true" ht="58.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="B17" s="8" t="n">
         <v>20038</v>
@@ -1358,13 +1671,13 @@
         <v>807</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="I17" s="9" t="n">
         <v>4</v>
@@ -1398,13 +1711,13 @@
         <v>844</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1414,7 +1727,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="K22" s="0" t="n">
         <v>82245</v>
@@ -1425,7 +1738,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="K23" s="0" t="n">
         <v>236293</v>
@@ -1436,7 +1749,7 @@
     </row>
     <row r="25" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>398</v>
@@ -1451,13 +1764,13 @@
         <v>53</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="I25" s="0" t="n">
         <v>1</v>
@@ -1490,23 +1803,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="9" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="13" min="3" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="9" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="13" min="3" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B1" s="0"/>
       <c r="N1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B2" s="9" t="n">
         <v>426.140889</v>
@@ -1549,7 +1862,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="B3" s="9" t="n">
         <v>431.97578</v>
@@ -1592,7 +1905,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B4" s="9" t="n">
         <v>339.981264</v>
@@ -1635,7 +1948,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="B5" s="9" t="n">
         <v>218.007827</v>
@@ -1678,7 +1991,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="B6" s="9" t="n">
         <v>319.2761</v>
@@ -1721,7 +2034,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="B7" s="9" t="n">
         <v>327.955631</v>
@@ -1764,7 +2077,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="B8" s="9" t="n">
         <v>451.953723</v>
@@ -1807,7 +2120,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="B9" s="9" t="n">
         <v>461.860597</v>
@@ -1850,7 +2163,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="B10" s="9" t="n">
         <v>354.837712</v>
@@ -1893,7 +2206,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="B11" s="9" t="n">
         <v>385.199008</v>
@@ -1936,7 +2249,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="B12" s="9" t="n">
         <v>179.78234</v>
@@ -1979,7 +2292,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="B13" s="9" t="n">
         <v>335.815794</v>
@@ -2022,14 +2335,14 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="B14" s="0"/>
       <c r="N14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B15" s="9" t="n">
         <v>445.817547</v>
@@ -2075,7 +2388,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="B16" s="9" t="n">
         <v>453.757756</v>
@@ -2121,7 +2434,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B17" s="9" t="n">
         <v>285.555329</v>
@@ -2167,7 +2480,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="B18" s="9" t="n">
         <v>233.008332</v>
@@ -2213,7 +2526,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="B19" s="9" t="n">
         <v>332.631266</v>
@@ -2259,7 +2572,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="B20" s="9" t="n">
         <v>393.485039</v>
@@ -2305,7 +2618,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="B21" s="9" t="n">
         <v>454.269451</v>
@@ -2351,7 +2664,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="B22" s="9" t="n">
         <v>480.910419</v>
@@ -2397,7 +2710,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="B23" s="9" t="n">
         <v>355.322246</v>
@@ -2443,7 +2756,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="B24" s="9" t="n">
         <v>360.83511</v>
@@ -2489,7 +2802,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="B25" s="9" t="n">
         <v>269.156459</v>
@@ -2535,7 +2848,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="B26" s="9" t="n">
         <v>334.201438</v>
@@ -2594,4 +2907,30 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>